--- a/html/resources/aoiConditions/train1P2Block4.xlsx
+++ b/html/resources/aoiConditions/train1P2Block4.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block4.xlsx
+++ b/html/resources/aoiConditions/train1P2Block4.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/12_pokika3.wav</t>
   </si>
   <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block4.xlsx
+++ b/html/resources/aoiConditions/train1P2Block4.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
+    <t>trainingaudio/12_pokika3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.mp3</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>

--- a/html/resources/aoiConditions/train1P2Block4.xlsx
+++ b/html/resources/aoiConditions/train1P2Block4.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/12_pokika3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.mp3</t>
+    <t>trainingaudio/12_pokika3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.ogg</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>

--- a/html/resources/aoiConditions/train1P2Block4.xlsx
+++ b/html/resources/aoiConditions/train1P2Block4.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/12_pokika3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.ogg</t>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>
